--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>First Name</t>
   </si>
@@ -49,6 +49,36 @@
     <t>Product</t>
   </si>
   <si>
+    <t>bsihal</t>
+  </si>
+  <si>
+    <t>ayyori</t>
+  </si>
+  <si>
+    <t>vish@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>Navi Mumbai</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>Protein Shake</t>
+  </si>
+  <si>
+    <t>Greek Yoghurt</t>
+  </si>
+  <si>
+    <t>Muscle Mass gainer</t>
+  </si>
+  <si>
     <t>Parth</t>
   </si>
   <si>
@@ -70,13 +100,16 @@
     <t>India</t>
   </si>
   <si>
-    <t>Protein Shake</t>
-  </si>
-  <si>
-    <t>Greek Yoghurt</t>
+    <t>Peanut butter</t>
   </si>
   <si>
     <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Fish Oil</t>
+  </si>
+  <si>
+    <t>Oats</t>
   </si>
 </sst>
 </file>
@@ -453,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -505,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>163</v>
@@ -526,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="K2">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -543,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>163</v>
@@ -564,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>163</v>
@@ -602,14 +635,204 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>163</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>663082682</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>663082682</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>163</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>663082682</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>663082682</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>663082682</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="33">
   <si>
     <t>First Name</t>
   </si>
@@ -486,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -831,6 +831,842 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>163</v>
+      </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>91231233</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>163</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>91231233</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>163</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>91231233</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>91231233</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>163</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>91231233</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>163</v>
+      </c>
+      <c r="F15">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>91231233</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>163</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>91231233</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>163</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>91231233</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>163</v>
+      </c>
+      <c r="F18">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>91231233</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>163</v>
+      </c>
+      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>91231233</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>163</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>91231233</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>163</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>91231233</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>163</v>
+      </c>
+      <c r="F22">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>91231233</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>163</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>91231233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>163</v>
+      </c>
+      <c r="F24">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>91231233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>163</v>
+      </c>
+      <c r="F25">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>91231233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>163</v>
+      </c>
+      <c r="F26">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>91231233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>163</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>91231233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>163</v>
+      </c>
+      <c r="F28">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>91231233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>163</v>
+      </c>
+      <c r="F29">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>91231233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>163</v>
+      </c>
+      <c r="F30">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>91231233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>163</v>
+      </c>
+      <c r="F31">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>91231233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="37">
   <si>
     <t>First Name</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Oats</t>
+  </si>
+  <si>
+    <t>Rajasjri</t>
+  </si>
+  <si>
+    <t>राजश्री</t>
+  </si>
+  <si>
+    <t>Etgdfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navi Mumbai </t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L47"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1667,6 +1679,614 @@
         <v>32</v>
       </c>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>163</v>
+      </c>
+      <c r="F32">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>91231233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>163</v>
+      </c>
+      <c r="F33">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>91231233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>163</v>
+      </c>
+      <c r="F34">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>91231233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>163</v>
+      </c>
+      <c r="F35">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>91231233</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>163</v>
+      </c>
+      <c r="F36">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>91231233</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>163</v>
+      </c>
+      <c r="F37">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>91231233</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>163</v>
+      </c>
+      <c r="F38">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>91231233</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>163</v>
+      </c>
+      <c r="F39">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>91231233</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>163</v>
+      </c>
+      <c r="F40">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>91231233</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>163</v>
+      </c>
+      <c r="F41">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>91231233</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>163</v>
+      </c>
+      <c r="F42">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>91231233</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>163</v>
+      </c>
+      <c r="F43">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>91231233</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44">
+        <v>9869515589</v>
+      </c>
+      <c r="L44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>163</v>
+      </c>
+      <c r="F45">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>91231233</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>163</v>
+      </c>
+      <c r="F46">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>91231233</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>163</v>
+      </c>
+      <c r="F47">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>91231233</v>
+      </c>
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -70,13 +70,19 @@
     <t>america</t>
   </si>
   <si>
-    <t>Protein Shake</t>
+    <t>Chia Seeds</t>
   </si>
   <si>
-    <t>Greek Yoghurt</t>
+    <t>Creatine</t>
   </si>
   <si>
-    <t>Muscle Mass gainer</t>
+    <t>Almond Butter</t>
+  </si>
+  <si>
+    <t>Energy Bar</t>
+  </si>
+  <si>
+    <t>Muscle Mass Gainer</t>
   </si>
   <si>
     <t>Parth</t>
@@ -100,28 +106,16 @@
     <t>India</t>
   </si>
   <si>
-    <t>Peanut butter</t>
+    <t>pranav</t>
   </si>
   <si>
-    <t>Glutamine</t>
+    <t>khandare</t>
   </si>
   <si>
-    <t>Fish Oil</t>
+    <t>pk@gmail.com</t>
   </si>
   <si>
-    <t>Oats</t>
-  </si>
-  <si>
-    <t>Rajasjri</t>
-  </si>
-  <si>
-    <t>राजश्री</t>
-  </si>
-  <si>
-    <t>Etgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navi Mumbai </t>
+    <t>Thane</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -655,16 +649,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>163</v>
@@ -673,19 +667,19 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
@@ -693,54 +687,54 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>91231233</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>163</v>
-      </c>
-      <c r="F6">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>663082682</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>163</v>
@@ -749,74 +743,74 @@
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>91231233</v>
+      </c>
+      <c r="L8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>163</v>
-      </c>
-      <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>663082682</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>163</v>
@@ -825,22 +819,22 @@
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>663082682</v>
+        <v>91231233</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -878,7 +872,7 @@
         <v>91231233</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -916,7 +910,7 @@
         <v>91231233</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,7 +948,7 @@
         <v>91231233</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,7 +986,7 @@
         <v>91231233</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1062,7 @@
         <v>91231233</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1106,21 +1100,21 @@
         <v>91231233</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>163</v>
@@ -1129,36 +1123,36 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>163</v>
@@ -1167,36 +1161,36 @@
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>163</v>
@@ -1205,36 +1199,36 @@
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>163</v>
@@ -1243,36 +1237,36 @@
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>163</v>
@@ -1281,36 +1275,36 @@
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>163</v>
@@ -1319,36 +1313,36 @@
         <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>163</v>
@@ -1357,19 +1351,19 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
@@ -1377,16 +1371,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>163</v>
@@ -1395,36 +1389,36 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K24">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>163</v>
@@ -1433,36 +1427,36 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K25">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>163</v>
@@ -1471,36 +1465,36 @@
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K26">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>163</v>
@@ -1509,36 +1503,36 @@
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K27">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>163</v>
@@ -1547,36 +1541,36 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>163</v>
@@ -1585,36 +1579,36 @@
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K29">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>163</v>
@@ -1623,36 +1617,36 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>163</v>
@@ -1661,36 +1655,36 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K31">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>163</v>
@@ -1699,36 +1693,36 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>163</v>
@@ -1737,36 +1731,36 @@
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K33">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>163</v>
@@ -1775,36 +1769,36 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K34">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>163</v>
@@ -1813,36 +1807,36 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K35">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>163</v>
@@ -1851,36 +1845,36 @@
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K36">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>163</v>
@@ -1889,22 +1883,22 @@
         <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K37">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1942,7 +1936,7 @@
         <v>91231233</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1980,7 +1974,7 @@
         <v>91231233</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2056,7 +2050,7 @@
         <v>91231233</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2094,21 +2088,21 @@
         <v>91231233</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>163</v>
@@ -2117,74 +2111,74 @@
         <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K43">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F44">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K44">
-        <v>9869515589</v>
+        <v>663082682</v>
       </c>
       <c r="L44" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>163</v>
@@ -2193,19 +2187,19 @@
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K45">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L45" t="s">
         <v>19</v>
@@ -2213,16 +2207,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>163</v>
@@ -2231,60 +2225,1314 @@
         <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K46">
-        <v>91231233</v>
+        <v>663082682</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>163</v>
+      </c>
+      <c r="F47">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>663082682</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>163</v>
+      </c>
+      <c r="F48">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>663082682</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>163</v>
+      </c>
+      <c r="F49">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49">
+        <v>663082682</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D47">
-        <v>18</v>
-      </c>
-      <c r="E47">
-        <v>163</v>
-      </c>
-      <c r="F47">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
         <v>17</v>
       </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47">
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50">
         <v>91231233</v>
       </c>
-      <c r="L47" t="s">
-        <v>30</v>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>163</v>
+      </c>
+      <c r="F51">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>91231233</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>163</v>
+      </c>
+      <c r="F52">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>91231233</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>163</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <v>91231233</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>163</v>
+      </c>
+      <c r="F54">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54">
+        <v>91231233</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>163</v>
+      </c>
+      <c r="F55">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>663082682</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>163</v>
+      </c>
+      <c r="F56">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56">
+        <v>663082682</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>163</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>663082682</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>163</v>
+      </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <v>663082682</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>163</v>
+      </c>
+      <c r="F59">
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>663082682</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>163</v>
+      </c>
+      <c r="F60">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>663082682</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>163</v>
+      </c>
+      <c r="F61">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>91231233</v>
+      </c>
+      <c r="L61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>163</v>
+      </c>
+      <c r="F62">
+        <v>56</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>91231233</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>163</v>
+      </c>
+      <c r="F63">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63">
+        <v>91231233</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>163</v>
+      </c>
+      <c r="F64">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64">
+        <v>91231233</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>163</v>
+      </c>
+      <c r="F65">
+        <v>56</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65">
+        <v>91231233</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>163</v>
+      </c>
+      <c r="F66">
+        <v>62</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>9137893005</v>
+      </c>
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>163</v>
+      </c>
+      <c r="F67">
+        <v>62</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67">
+        <v>9137893005</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>163</v>
+      </c>
+      <c r="F68">
+        <v>62</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>9137893005</v>
+      </c>
+      <c r="L68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>163</v>
+      </c>
+      <c r="F69">
+        <v>62</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>9137893005</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>163</v>
+      </c>
+      <c r="F70">
+        <v>62</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>9137893005</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>163</v>
+      </c>
+      <c r="F71">
+        <v>62</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>9137893005</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>163</v>
+      </c>
+      <c r="F72">
+        <v>62</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <v>9137893005</v>
+      </c>
+      <c r="L72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>163</v>
+      </c>
+      <c r="F73">
+        <v>62</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>9137893005</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>163</v>
+      </c>
+      <c r="F74">
+        <v>62</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>9137893005</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>163</v>
+      </c>
+      <c r="F75">
+        <v>62</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>9137893005</v>
+      </c>
+      <c r="L75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>163</v>
+      </c>
+      <c r="F76">
+        <v>62</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>9137893005</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>163</v>
+      </c>
+      <c r="F77">
+        <v>62</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77">
+        <v>9137893005</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>163</v>
+      </c>
+      <c r="F78">
+        <v>62</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>9137893005</v>
+      </c>
+      <c r="L78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>163</v>
+      </c>
+      <c r="F79">
+        <v>62</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <v>9137893005</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>163</v>
+      </c>
+      <c r="F80">
+        <v>62</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80">
+        <v>9137893005</v>
+      </c>
+      <c r="L80" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C20A6C-9329-4EFC-BE23-B0B87CED0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="UserDetails" state="visible" r:id="rId4"/>
+    <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="49">
   <si>
     <t>First Name</t>
   </si>
@@ -116,9 +120,6 @@
   </si>
   <si>
     <t>Thane</t>
-  </si>
-  <si>
-    <t>Almond Butterss</t>
   </si>
   <si>
     <t>tirthesh</t>
@@ -166,14 +167,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,11 +537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -616,7 +622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -654,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -692,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -730,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -768,7 +774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -806,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -844,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -882,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -920,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -958,7 +964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3615,10 +3621,10 @@
         <v>91231233</v>
       </c>
       <c r="L81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -3694,15 +3700,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
         <v>36</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>37</v>
-      </c>
-      <c r="C84" t="s">
-        <v>38</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -3732,15 +3738,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
         <v>36</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>37</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
       </c>
       <c r="D85">
         <v>10</v>
@@ -3770,15 +3776,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
         <v>36</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>37</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
       </c>
       <c r="D86">
         <v>10</v>
@@ -3808,15 +3814,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D87">
         <v>25</v>
@@ -3834,10 +3840,10 @@
         <v>16</v>
       </c>
       <c r="I87" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s">
         <v>41</v>
-      </c>
-      <c r="J87" t="s">
-        <v>42</v>
       </c>
       <c r="K87">
         <v>9969501331</v>
@@ -3846,15 +3852,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88">
         <v>25</v>
@@ -3872,27 +3878,27 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
         <v>41</v>
-      </c>
-      <c r="J88" t="s">
-        <v>42</v>
       </c>
       <c r="K88">
         <v>9969501331</v>
       </c>
       <c r="L88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>36</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -3907,13 +3913,13 @@
         <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
         <v>41</v>
-      </c>
-      <c r="J89" t="s">
-        <v>42</v>
       </c>
       <c r="K89">
         <v>9969501331</v>
@@ -3922,15 +3928,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -3945,13 +3951,13 @@
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
         <v>41</v>
-      </c>
-      <c r="J90" t="s">
-        <v>42</v>
       </c>
       <c r="K90">
         <v>9969501331</v>
@@ -3960,15 +3966,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -3983,30 +3989,30 @@
         <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s">
         <v>41</v>
-      </c>
-      <c r="J91" t="s">
-        <v>42</v>
       </c>
       <c r="K91">
         <v>9969501331</v>
       </c>
       <c r="L91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>36</v>
       </c>
       <c r="B92" t="s">
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>20</v>
@@ -4021,13 +4027,13 @@
         <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s">
         <v>41</v>
-      </c>
-      <c r="J92" t="s">
-        <v>42</v>
       </c>
       <c r="K92">
         <v>9969501331</v>
@@ -4036,15 +4042,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
         <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D93">
         <v>20</v>
@@ -4059,13 +4065,13 @@
         <v>27</v>
       </c>
       <c r="H93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I93" t="s">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s">
         <v>41</v>
-      </c>
-      <c r="J93" t="s">
-        <v>42</v>
       </c>
       <c r="K93">
         <v>9969501331</v>
@@ -4074,15 +4080,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94">
         <v>20</v>
@@ -4097,13 +4103,13 @@
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s">
         <v>41</v>
-      </c>
-      <c r="J94" t="s">
-        <v>42</v>
       </c>
       <c r="K94">
         <v>9969501331</v>
@@ -4112,15 +4118,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -4135,13 +4141,13 @@
         <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I95" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s">
         <v>41</v>
-      </c>
-      <c r="J95" t="s">
-        <v>42</v>
       </c>
       <c r="K95">
         <v>9969501331</v>
@@ -4150,15 +4156,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96">
         <v>22</v>
@@ -4176,7 +4182,7 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s">
         <v>30</v>
@@ -4185,18 +4191,18 @@
         <v>91231233</v>
       </c>
       <c r="L96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>36</v>
       </c>
       <c r="B97" t="s">
         <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>20</v>
@@ -4211,13 +4217,13 @@
         <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s">
         <v>41</v>
-      </c>
-      <c r="J97" t="s">
-        <v>42</v>
       </c>
       <c r="K97">
         <v>9969501331</v>
@@ -4226,15 +4232,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D98">
         <v>20</v>
@@ -4249,13 +4255,13 @@
         <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I98" t="s">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s">
         <v>41</v>
-      </c>
-      <c r="J98" t="s">
-        <v>42</v>
       </c>
       <c r="K98">
         <v>9969501331</v>
@@ -4264,15 +4270,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D99">
         <v>20</v>
@@ -4287,13 +4293,13 @@
         <v>27</v>
       </c>
       <c r="H99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
         <v>41</v>
-      </c>
-      <c r="J99" t="s">
-        <v>42</v>
       </c>
       <c r="K99">
         <v>9969501331</v>
@@ -4302,15 +4308,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D100">
         <v>20</v>
@@ -4325,13 +4331,13 @@
         <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s">
         <v>41</v>
-      </c>
-      <c r="J100" t="s">
-        <v>42</v>
       </c>
       <c r="K100">
         <v>9969501331</v>
@@ -4340,15 +4346,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
         <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D101">
         <v>20</v>
@@ -4363,13 +4369,13 @@
         <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
         <v>41</v>
-      </c>
-      <c r="J101" t="s">
-        <v>42</v>
       </c>
       <c r="K101">
         <v>9969501331</v>
@@ -4378,15 +4384,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102">
         <v>18</v>
@@ -4413,18 +4419,18 @@
         <v>91231233</v>
       </c>
       <c r="L102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>18</v>
@@ -4451,11 +4457,11 @@
         <v>91231233</v>
       </c>
       <c r="L103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="62">
   <si>
     <t>First Name</t>
   </si>
@@ -77,6 +77,126 @@
   </si>
   <si>
     <t>Whey Protein Powder</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>kharte</t>
+  </si>
+  <si>
+    <t>kharteyash03@gmail.com</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>Multivitamin for Athletes</t>
+  </si>
+  <si>
+    <t>Protein Shake Ready-to-Drink (RTD)</t>
+  </si>
+  <si>
+    <t>Muscle Recovery Cream</t>
+  </si>
+  <si>
+    <t>Nitric Oxide Booster</t>
+  </si>
+  <si>
+    <t>Thermogenic Fat Burner</t>
+  </si>
+  <si>
+    <t>Electrolyte Drink Mix</t>
+  </si>
+  <si>
+    <t>Protein Coffee</t>
+  </si>
+  <si>
+    <t>Sweat Headbands</t>
+  </si>
+  <si>
+    <t>Vegan Protein Bars</t>
+  </si>
+  <si>
+    <t>Protein-rich Energy Bites</t>
+  </si>
+  <si>
+    <t>Water Bottle (With Infuser)</t>
+  </si>
+  <si>
+    <t>Fitness Tracker Watch</t>
+  </si>
+  <si>
+    <t>Heart Rate Monitor Chest Strap</t>
+  </si>
+  <si>
+    <t>Protein Pancake Mix</t>
+  </si>
+  <si>
+    <t>Whey Isolate Protein Powder</t>
+  </si>
+  <si>
+    <t>Protein Brownie Mix</t>
+  </si>
+  <si>
+    <t>Jump Rope</t>
+  </si>
+  <si>
+    <t>Medicine Ball</t>
+  </si>
+  <si>
+    <t>Kettlebell</t>
+  </si>
+  <si>
+    <t>Resistance Bands (Various Resistance Levels)</t>
+  </si>
+  <si>
+    <t>Massage Ball</t>
+  </si>
+  <si>
+    <t>Foam Roller</t>
+  </si>
+  <si>
+    <t>Protein Chips</t>
+  </si>
+  <si>
+    <t>Protein Pasta</t>
+  </si>
+  <si>
+    <t>Muscle Recovery Supplements</t>
+  </si>
+  <si>
+    <t>Wrist Wraps</t>
+  </si>
+  <si>
+    <t>Antioxidant-Rich Superfood Supplements</t>
+  </si>
+  <si>
+    <t>Adaptogen Supplements for Stress Management</t>
+  </si>
+  <si>
+    <t>Protein Cookies</t>
+  </si>
+  <si>
+    <t>Workout Journal/Planner</t>
+  </si>
+  <si>
+    <t>Plant-Based Meal Prep Services</t>
+  </si>
+  <si>
+    <t>Cooling Towel</t>
+  </si>
+  <si>
+    <t>Compression Socks</t>
+  </si>
+  <si>
+    <t>Hydration Mix with Probiotics</t>
+  </si>
+  <si>
+    <t>Testosterone Boosting Supplements</t>
+  </si>
+  <si>
+    <t>Electrolyte Powders for Hydration</t>
   </si>
 </sst>
 </file>
@@ -453,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L44"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,8 +728,1528 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>170</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>9136472650</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>170</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>9136472650</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>170</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>9136472650</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>170</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>9136472650</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>9136472650</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>170</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>9136472650</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>9136472650</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>9136472650</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>170</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>9136472650</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>170</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>9136472650</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>9136472650</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>170</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>9136472650</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>9136472650</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>9136472650</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>9136472650</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>170</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>9136472650</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>170</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>9136472650</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>170</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>9136472650</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>170</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>9136472650</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>170</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>9136472650</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>170</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>9136472650</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>170</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>9136472650</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>170</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>9136472650</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>170</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>9136472650</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>9136472650</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>170</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>9136472650</v>
+      </c>
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>170</v>
+      </c>
+      <c r="F31">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>9136472650</v>
+      </c>
+      <c r="L31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>9136472650</v>
+      </c>
+      <c r="L32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>170</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>9136472650</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>170</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>9136472650</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>170</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>9136472650</v>
+      </c>
+      <c r="L35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>9136472650</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>170</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>9136472650</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>170</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>9136472650</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>9136472650</v>
+      </c>
+      <c r="L39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>170</v>
+      </c>
+      <c r="F40">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>9136472650</v>
+      </c>
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>170</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>9136472650</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>170</v>
+      </c>
+      <c r="F42">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>9136472650</v>
+      </c>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>170</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>9136472650</v>
+      </c>
+      <c r="L43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>170</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>9136472650</v>
+      </c>
+      <c r="L44" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -1,47 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya\Desktop\Ecomm CLG\backend\public\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72F4A18-9856-4316-BCF3-24FD535D4C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F6558F0-8AEC-48A9-BEE1-963F604393BC}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="UserDetails" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>tirthesh</t>
+  </si>
+  <si>
+    <t>khandare</t>
+  </si>
+  <si>
+    <t>tir@gmail.com</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>Navi Mumbai</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Whey Protein Powder</t>
+  </si>
+  <si>
+    <t>Post-Workout Recovery Drink</t>
+  </si>
+  <si>
+    <t>Whey Isolate Protein Powder</t>
+  </si>
+  <si>
+    <t>Post-Workout Protein Shake Mix</t>
+  </si>
+  <si>
+    <t>parth</t>
+  </si>
+  <si>
+    <t>sonavane</t>
+  </si>
+  <si>
+    <t>par@gmail.com</t>
+  </si>
+  <si>
+    <t>Electrolyte Powders for Hydration</t>
+  </si>
+  <si>
+    <t>Meal Replacement Shakes</t>
+  </si>
+  <si>
+    <t>Vegan Protein Bars</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>kharte</t>
+  </si>
+  <si>
+    <t>kharteyash03@gmail.com</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>Creatine Monohydrate</t>
+  </si>
+  <si>
+    <t>BCAA (Branched-Chain Amino Acids)</t>
+  </si>
+  <si>
+    <t>Multivitamin for Athletes</t>
+  </si>
+  <si>
+    <t>Pre-Workout Supplement</t>
+  </si>
+  <si>
+    <t>micheal</t>
+  </si>
+  <si>
+    <t>Choudhari</t>
+  </si>
+  <si>
+    <t>www.gta5adi@gmail.com</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Electrolyte Drink Mix</t>
+  </si>
+  <si>
+    <t>Thermogenic Fat Burner</t>
+  </si>
+  <si>
+    <t>Mass Gainer Supplement</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,44 +208,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -159,31 +273,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,23 +308,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -239,153 +319,1047 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698B901-524F-4457-8706-DC6F87881A5A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>9969501331</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>9969501331</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>162</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>9969501331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>9969501331</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>65851265523</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>163</v>
+      </c>
+      <c r="F7">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>65851265523</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>65851265523</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>65851265523</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>163</v>
+      </c>
+      <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>65851265523</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>9136472650</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>9136472650</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>170</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>9136472650</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>170</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>9136472650</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>9136472650</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>170</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>9137893005</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>9137893005</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>9137893005</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>9137893005</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>145</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>9869537011</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>145</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>9869537011</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>145</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>9869537011</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="85">
   <si>
     <t>First Name</t>
   </si>
@@ -143,6 +143,129 @@
   </si>
   <si>
     <t>Mass Gainer Supplement</t>
+  </si>
+  <si>
+    <t>Peanut Butter Protein Powder</t>
+  </si>
+  <si>
+    <t>Protein Shake Ready-to-Drink (RTD)</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>adi@gmail.com</t>
+  </si>
+  <si>
+    <t>Protein Coffee</t>
+  </si>
+  <si>
+    <t>Protein Water</t>
+  </si>
+  <si>
+    <t>Fitness Tracker Watch</t>
+  </si>
+  <si>
+    <t>Blender Bottle/Shaker Cup</t>
+  </si>
+  <si>
+    <t>Heart Rate Monitor Chest Strap</t>
+  </si>
+  <si>
+    <t>Compression Socks</t>
+  </si>
+  <si>
+    <t>Resistance Bands Set with Door Anchor</t>
+  </si>
+  <si>
+    <t>Stability Ball Chair with Resistance Bands</t>
+  </si>
+  <si>
+    <t>Grip Strength Trainer with Adjustable Resistance</t>
+  </si>
+  <si>
+    <t>Hand Grip Strengthener Set with Finger Exerciser</t>
+  </si>
+  <si>
+    <t>Weightlifting Gloves</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>mhatre</t>
+  </si>
+  <si>
+    <t>manasimhatre02@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>panvel</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>manasi</t>
+  </si>
+  <si>
+    <t>manasi@gmail.com</t>
+  </si>
+  <si>
+    <t>Yoga Mat Holder</t>
+  </si>
+  <si>
+    <t>Yoga Mat Organizer</t>
+  </si>
+  <si>
+    <t>Yoga Mat Wall Mount</t>
+  </si>
+  <si>
+    <t>Yoga Mat Cover</t>
+  </si>
+  <si>
+    <t>Non-Slip Yoga Socks with Grips</t>
+  </si>
+  <si>
+    <t>Yoga Gloves with Wrist Support</t>
+  </si>
+  <si>
+    <t>Yoga Headstand Bench with Cushion</t>
+  </si>
+  <si>
+    <t>Yoga Swing Set with Installation Kit</t>
+  </si>
+  <si>
+    <t>Compact Exercise Peddler</t>
+  </si>
+  <si>
+    <t>Mini Stepper for Aerobic Exercise</t>
+  </si>
+  <si>
+    <t>Yoga Strap with Loops</t>
+  </si>
+  <si>
+    <t>Yoga Wheel with Acupressure Points</t>
+  </si>
+  <si>
+    <t>Yoga Blanket for Restorative Poses</t>
+  </si>
+  <si>
+    <t>Yoga Socks with Toe Separators</t>
+  </si>
+  <si>
+    <t>Yoga Wheel with Back Pain Relief</t>
+  </si>
+  <si>
+    <t>Yoga Gloves with Non-Slip Grip</t>
+  </si>
+  <si>
+    <t>Aerial Yoga Hammock with Carabiners</t>
+  </si>
+  <si>
+    <t>Pilates Ring with Dual Grips</t>
   </si>
 </sst>
 </file>
@@ -519,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L68"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,6 +1481,1754 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>145</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>9869537011</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>145</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>9869537011</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>145</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>9869537011</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>170</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>91231233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>170</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>91231233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>170</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>91231233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>91231233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>170</v>
+      </c>
+      <c r="F30">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>91231233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>170</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>91231233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>91231233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>170</v>
+      </c>
+      <c r="F33">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>91231233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>170</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>91231233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>170</v>
+      </c>
+      <c r="F35">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>91231233</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>91231233</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>170</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>91231233</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>170</v>
+      </c>
+      <c r="F38">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>91231233</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>91231233</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>170</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>91231233</v>
+      </c>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>170</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>91231233</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>170</v>
+      </c>
+      <c r="F42">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>91231233</v>
+      </c>
+      <c r="L42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>170</v>
+      </c>
+      <c r="F43">
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>91231233</v>
+      </c>
+      <c r="L43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>170</v>
+      </c>
+      <c r="F44">
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>91231233</v>
+      </c>
+      <c r="L44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>170</v>
+      </c>
+      <c r="F45">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>91231233</v>
+      </c>
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>170</v>
+      </c>
+      <c r="F46">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>91231233</v>
+      </c>
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>170</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>91231233</v>
+      </c>
+      <c r="L47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>170</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>91231233</v>
+      </c>
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>161</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>1270127114</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>161</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>1270127114</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>160</v>
+      </c>
+      <c r="F51">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>91231233</v>
+      </c>
+      <c r="L51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="E52">
+        <v>160</v>
+      </c>
+      <c r="F52">
+        <v>53</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>91231233</v>
+      </c>
+      <c r="L52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>160</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <v>91231233</v>
+      </c>
+      <c r="L53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>160</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54">
+        <v>91231233</v>
+      </c>
+      <c r="L54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>160</v>
+      </c>
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>91231233</v>
+      </c>
+      <c r="L55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56">
+        <v>160</v>
+      </c>
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>91231233</v>
+      </c>
+      <c r="L56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <v>160</v>
+      </c>
+      <c r="F57">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57">
+        <v>91231233</v>
+      </c>
+      <c r="L57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>160</v>
+      </c>
+      <c r="F58">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58">
+        <v>91231233</v>
+      </c>
+      <c r="L58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>160</v>
+      </c>
+      <c r="F59">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59">
+        <v>91231233</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>160</v>
+      </c>
+      <c r="F60">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>91231233</v>
+      </c>
+      <c r="L60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>160</v>
+      </c>
+      <c r="F61">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>91231233</v>
+      </c>
+      <c r="L61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>160</v>
+      </c>
+      <c r="F62">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>91231233</v>
+      </c>
+      <c r="L62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>160</v>
+      </c>
+      <c r="F63">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63">
+        <v>91231233</v>
+      </c>
+      <c r="L63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>160</v>
+      </c>
+      <c r="F64">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64">
+        <v>91231233</v>
+      </c>
+      <c r="L64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>160</v>
+      </c>
+      <c r="F65">
+        <v>53</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65">
+        <v>91231233</v>
+      </c>
+      <c r="L65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>160</v>
+      </c>
+      <c r="F66">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66">
+        <v>91231233</v>
+      </c>
+      <c r="L66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>48</v>
+      </c>
+      <c r="E67">
+        <v>160</v>
+      </c>
+      <c r="F67">
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67">
+        <v>91231233</v>
+      </c>
+      <c r="L67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>48</v>
+      </c>
+      <c r="E68">
+        <v>160</v>
+      </c>
+      <c r="F68">
+        <v>53</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68">
+        <v>91231233</v>
+      </c>
+      <c r="L68" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="88">
   <si>
     <t>First Name</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>Pilates Ring with Dual Grips</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Kharte</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L70"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3229,6 +3238,82 @@
         <v>84</v>
       </c>
     </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>170</v>
+      </c>
+      <c r="F69">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69">
+        <v>9136472650</v>
+      </c>
+      <c r="L69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70">
+        <v>76</v>
+      </c>
+      <c r="E70">
+        <v>170</v>
+      </c>
+      <c r="F70">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70">
+        <v>9136472650</v>
+      </c>
+      <c r="L70" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/public/temp/user_details.xlsx
+++ b/public/temp/user_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="92">
   <si>
     <t>First Name</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Electrolyte Drink Tablets</t>
+  </si>
+  <si>
+    <t>Sweat Headbands</t>
+  </si>
+  <si>
+    <t>pg.rajashri@gmail.com</t>
+  </si>
+  <si>
+    <t>Muscle Recovery Cream</t>
   </si>
 </sst>
 </file>
@@ -651,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L77"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3314,6 +3326,272 @@
         <v>43</v>
       </c>
     </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>162</v>
+      </c>
+      <c r="F71">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71">
+        <v>9136472650</v>
+      </c>
+      <c r="L71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>162</v>
+      </c>
+      <c r="F72">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72">
+        <v>9136472650</v>
+      </c>
+      <c r="L72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>162</v>
+      </c>
+      <c r="F73">
+        <v>56</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>9136472650</v>
+      </c>
+      <c r="L73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>145</v>
+      </c>
+      <c r="F74">
+        <v>68</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <v>9969501331</v>
+      </c>
+      <c r="L74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>145</v>
+      </c>
+      <c r="F75">
+        <v>68</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75">
+        <v>9969501331</v>
+      </c>
+      <c r="L75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>145</v>
+      </c>
+      <c r="F76">
+        <v>68</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <v>9969501331</v>
+      </c>
+      <c r="L76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>145</v>
+      </c>
+      <c r="F77">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <v>9969501331</v>
+      </c>
+      <c r="L77" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
